--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Plg</t>
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +537,40 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.27881</v>
+        <v>173.637756</v>
       </c>
       <c r="N2">
-        <v>15.83643</v>
+        <v>520.913268</v>
       </c>
       <c r="O2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P2">
-        <v>0.029253274671187</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q2">
-        <v>2.45865326679</v>
+        <v>80.87334759680401</v>
       </c>
       <c r="R2">
-        <v>22.12787940111</v>
+        <v>727.8601283712361</v>
       </c>
       <c r="S2">
-        <v>0.029253274671187</v>
+        <v>0.9540791496890872</v>
       </c>
       <c r="T2">
-        <v>0.029253274671187</v>
+        <v>0.9540791496890872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +599,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,42 +611,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>173.637756</v>
+        <v>2.184794333333333</v>
       </c>
       <c r="N3">
-        <v>520.913268</v>
+        <v>6.554383</v>
       </c>
       <c r="O3">
-        <v>0.9622382638429019</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="P3">
-        <v>0.962238263842902</v>
+        <v>0.0124261326501708</v>
       </c>
       <c r="Q3">
-        <v>80.87334759680401</v>
+        <v>1.017587623899</v>
       </c>
       <c r="R3">
-        <v>727.8601283712361</v>
+        <v>9.158288615091001</v>
       </c>
       <c r="S3">
-        <v>0.9622382638429019</v>
+        <v>0.01200468589211786</v>
       </c>
       <c r="T3">
-        <v>0.962238263842902</v>
+        <v>0.01200468589211786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +655,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.465759</v>
+        <v>0.01635133333333333</v>
       </c>
       <c r="H4">
-        <v>1.397277</v>
+        <v>0.049054</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03391616441879487</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03391616441879487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +673,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.535368333333333</v>
+        <v>173.637756</v>
       </c>
       <c r="N4">
-        <v>4.606105</v>
+        <v>520.913268</v>
       </c>
       <c r="O4">
-        <v>0.008508461485911143</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="P4">
-        <v>0.008508461485911145</v>
+        <v>0.9875738673498291</v>
       </c>
       <c r="Q4">
-        <v>0.7151116195650001</v>
+        <v>2.839208827608</v>
       </c>
       <c r="R4">
-        <v>6.436004576085001</v>
+        <v>25.552879448472</v>
       </c>
       <c r="S4">
-        <v>0.008508461485911143</v>
+        <v>0.03349471766074191</v>
       </c>
       <c r="T4">
-        <v>0.008508461485911145</v>
+        <v>0.03349471766074191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.184794333333333</v>
+      </c>
+      <c r="N5">
+        <v>6.554383</v>
+      </c>
+      <c r="O5">
+        <v>0.0124261326501708</v>
+      </c>
+      <c r="P5">
+        <v>0.0124261326501708</v>
+      </c>
+      <c r="Q5">
+        <v>0.03572430040911111</v>
+      </c>
+      <c r="R5">
+        <v>0.321518703682</v>
+      </c>
+      <c r="S5">
+        <v>0.0004214467580529482</v>
+      </c>
+      <c r="T5">
+        <v>0.0004214467580529482</v>
       </c>
     </row>
   </sheetData>
